--- a/MAD_tool_NatDB/MADmap.xlsx
+++ b/MAD_tool_NatDB/MADmap.xlsx
@@ -577,6 +577,9 @@
     <t>http://purl.obolibrary.org/obo/PATO_0000146</t>
   </si>
   <si>
+    <t>child measurement</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/UO_0000027</t>
   </si>
   <si>
@@ -812,9 +815,6 @@
   </si>
   <si>
     <t>http://eol.org/schema/terms/Age</t>
-  </si>
-  <si>
-    <t>child measurement</t>
   </si>
   <si>
     <t>map</t>
@@ -1220,7 +1220,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1245,16 +1245,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1278,7 +1275,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1500,17 +1497,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1538,10 +1535,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1789,12 +1786,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2081,7 +2078,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2109,10 +2106,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2431,14 +2428,14 @@
         <v>11</v>
       </c>
       <c r="M1" s="7"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
     </row>
     <row r="2" ht="17" customHeight="1">
       <c r="A2" t="s" s="2">
@@ -2450,7 +2447,7 @@
       <c r="C2" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="7"/>
       <c r="E2" t="s" s="2">
         <v>4</v>
       </c>
@@ -2463,18 +2460,18 @@
       <c r="H2" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
       <c r="U2" s="7"/>
     </row>
     <row r="3" ht="17" customHeight="1">
@@ -2487,7 +2484,7 @@
       <c r="C3" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="7"/>
       <c r="E3" t="s" s="2">
         <v>4</v>
       </c>
@@ -2500,31 +2497,31 @@
       <c r="H3" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
       <c r="U3" s="7"/>
     </row>
     <row r="4" ht="17" customHeight="1">
       <c r="A4" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B4" t="b" s="8">
+      <c r="B4" t="b" s="9">
         <v>1</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7"/>
       <c r="E4" t="s" s="2">
         <v>4</v>
       </c>
@@ -2537,31 +2534,31 @@
       <c r="H4" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
     </row>
     <row r="5" ht="17" customHeight="1">
       <c r="A5" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B5" t="b" s="8">
+      <c r="B5" t="b" s="9">
         <v>1</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="7"/>
       <c r="E5" t="s" s="2">
         <v>4</v>
       </c>
@@ -2574,31 +2571,31 @@
       <c r="H5" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
       <c r="U5" s="7"/>
     </row>
     <row r="6" ht="17" customHeight="1">
       <c r="A6" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B6" t="b" s="8">
+      <c r="B6" t="b" s="9">
         <v>1</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="7"/>
       <c r="E6" t="s" s="2">
         <v>4</v>
       </c>
@@ -2611,31 +2608,31 @@
       <c r="H6" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
       <c r="U6" s="7"/>
     </row>
     <row r="7" ht="17" customHeight="1">
       <c r="A7" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B7" t="b" s="8">
+      <c r="B7" t="b" s="9">
         <v>1</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="7"/>
       <c r="E7" t="s" s="2">
         <v>4</v>
       </c>
@@ -2648,18 +2645,18 @@
       <c r="H7" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
       <c r="U7" s="7"/>
     </row>
     <row r="8" ht="17" customHeight="1">
@@ -2672,7 +2669,7 @@
       <c r="C8" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
       <c r="E8" t="s" s="2">
         <v>4</v>
       </c>
@@ -2685,31 +2682,31 @@
       <c r="H8" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
       <c r="U8" s="7"/>
     </row>
     <row r="9" ht="17" customHeight="1">
       <c r="A9" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B9" t="b" s="8">
+      <c r="B9" t="b" s="9">
         <v>1</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="7"/>
       <c r="E9" t="s" s="2">
         <v>4</v>
       </c>
@@ -2722,31 +2719,31 @@
       <c r="H9" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
     </row>
     <row r="10" ht="17" customHeight="1">
       <c r="A10" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B10" t="b" s="8">
+      <c r="B10" t="b" s="9">
         <v>1</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="7"/>
       <c r="E10" t="s" s="2">
         <v>4</v>
       </c>
@@ -2759,31 +2756,31 @@
       <c r="H10" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
       <c r="U10" s="7"/>
     </row>
     <row r="11" ht="17" customHeight="1">
       <c r="A11" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B11" t="b" s="8">
+      <c r="B11" t="b" s="9">
         <v>1</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="7"/>
       <c r="E11" t="s" s="2">
         <v>4</v>
       </c>
@@ -2796,18 +2793,18 @@
       <c r="H11" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
       <c r="U11" s="7"/>
     </row>
     <row r="12" ht="17" customHeight="1">
@@ -2820,7 +2817,7 @@
       <c r="C12" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="7"/>
       <c r="E12" t="s" s="2">
         <v>4</v>
       </c>
@@ -2833,21 +2830,21 @@
       <c r="H12" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
+      <c r="K12" s="7"/>
       <c r="L12" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
     </row>
     <row r="13" ht="17" customHeight="1">
       <c r="A13" t="s" s="2">
@@ -2859,7 +2856,7 @@
       <c r="C13" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="7"/>
       <c r="E13" t="s" s="2">
         <v>4</v>
       </c>
@@ -2872,27 +2869,27 @@
       <c r="H13" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="8"/>
+      <c r="K13" s="7"/>
       <c r="L13" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="8"/>
+      <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
       <c r="U13" s="7"/>
     </row>
     <row r="14" ht="17" customHeight="1">
       <c r="A14" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="7"/>
       <c r="C14" t="s" s="2">
         <v>14</v>
       </c>
@@ -2905,33 +2902,33 @@
       <c r="F14" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="7"/>
       <c r="H14" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="7"/>
       <c r="K14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="8"/>
+      <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="8"/>
+      <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
     </row>
     <row r="15" ht="17" customHeight="1">
       <c r="A15" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="7"/>
       <c r="C15" t="s" s="2">
         <v>14</v>
       </c>
@@ -2944,27 +2941,27 @@
       <c r="F15" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="7"/>
       <c r="H15" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="7"/>
       <c r="K15" t="s" s="2">
         <v>46</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="8"/>
+      <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="8"/>
+      <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
     </row>
     <row r="16" ht="17" customHeight="1">
       <c r="A16" t="s" s="2">
@@ -2976,7 +2973,7 @@
       <c r="C16" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="7"/>
       <c r="E16" t="s" s="2">
         <v>4</v>
       </c>
@@ -2989,18 +2986,18 @@
       <c r="H16" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="8"/>
+      <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
       <c r="U16" s="7"/>
     </row>
     <row r="17" ht="17" customHeight="1">
@@ -3013,7 +3010,7 @@
       <c r="C17" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="7"/>
       <c r="E17" t="s" s="2">
         <v>4</v>
       </c>
@@ -3026,18 +3023,18 @@
       <c r="H17" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="8"/>
+      <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
       <c r="U17" s="7"/>
     </row>
     <row r="18" ht="17" customHeight="1">
@@ -3050,7 +3047,7 @@
       <c r="C18" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="7"/>
       <c r="E18" t="s" s="2">
         <v>4</v>
       </c>
@@ -3063,19 +3060,19 @@
       <c r="H18" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="8"/>
+      <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
     </row>
     <row r="19" ht="17" customHeight="1">
       <c r="A19" t="s" s="2">
@@ -3087,7 +3084,7 @@
       <c r="C19" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="7"/>
       <c r="E19" t="s" s="2">
         <v>4</v>
       </c>
@@ -3100,17 +3097,17 @@
       <c r="H19" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="8"/>
+      <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="8"/>
+      <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
     </row>
@@ -3124,7 +3121,7 @@
       <c r="C20" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="7"/>
       <c r="E20" t="s" s="2">
         <v>4</v>
       </c>
@@ -3137,17 +3134,17 @@
       <c r="H20" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="8"/>
+      <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="8"/>
+      <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
     </row>
@@ -3161,7 +3158,7 @@
       <c r="C21" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="7"/>
       <c r="E21" t="s" s="2">
         <v>4</v>
       </c>
@@ -3174,17 +3171,17 @@
       <c r="H21" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="8"/>
+      <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
     </row>
@@ -3198,7 +3195,7 @@
       <c r="C22" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="7"/>
       <c r="E22" t="s" s="2">
         <v>4</v>
       </c>
@@ -3211,17 +3208,17 @@
       <c r="H22" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="8"/>
+      <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="8"/>
+      <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
     </row>
@@ -3235,7 +3232,7 @@
       <c r="C23" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="7"/>
       <c r="E23" t="s" s="2">
         <v>4</v>
       </c>
@@ -3248,17 +3245,17 @@
       <c r="H23" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="8"/>
+      <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="8"/>
+      <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
     </row>
@@ -3272,7 +3269,7 @@
       <c r="C24" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="7"/>
       <c r="E24" t="s" s="2">
         <v>4</v>
       </c>
@@ -3285,17 +3282,17 @@
       <c r="H24" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="8"/>
+      <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="8"/>
+      <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
     </row>
@@ -3309,7 +3306,7 @@
       <c r="C25" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="7"/>
       <c r="E25" t="s" s="2">
         <v>4</v>
       </c>
@@ -3322,17 +3319,17 @@
       <c r="H25" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="8"/>
+      <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
     </row>
@@ -3346,7 +3343,7 @@
       <c r="C26" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="7"/>
       <c r="E26" t="s" s="2">
         <v>4</v>
       </c>
@@ -3359,17 +3356,17 @@
       <c r="H26" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="8"/>
+      <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
     </row>
@@ -3383,7 +3380,7 @@
       <c r="C27" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="7"/>
       <c r="E27" t="s" s="2">
         <v>4</v>
       </c>
@@ -3396,17 +3393,17 @@
       <c r="H27" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="8"/>
+      <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
     </row>
@@ -3420,7 +3417,7 @@
       <c r="C28" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="7"/>
       <c r="E28" t="s" s="2">
         <v>4</v>
       </c>
@@ -3433,17 +3430,17 @@
       <c r="H28" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="8"/>
+      <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
     </row>
@@ -3457,7 +3454,7 @@
       <c r="C29" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="7"/>
       <c r="E29" t="s" s="2">
         <v>4</v>
       </c>
@@ -3470,17 +3467,17 @@
       <c r="H29" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="8"/>
+      <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
     </row>
@@ -3494,7 +3491,7 @@
       <c r="C30" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="7"/>
       <c r="E30" t="s" s="2">
         <v>4</v>
       </c>
@@ -3507,17 +3504,17 @@
       <c r="H30" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="8"/>
+      <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
     </row>
@@ -3525,7 +3522,7 @@
       <c r="A31" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="7"/>
       <c r="C31" t="s" s="2">
         <v>14</v>
       </c>
@@ -3538,25 +3535,25 @@
       <c r="F31" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G31" s="8"/>
+      <c r="G31" s="7"/>
       <c r="H31" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J31" s="8"/>
+      <c r="J31" s="7"/>
       <c r="K31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="8"/>
+      <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
     </row>
@@ -3564,7 +3561,7 @@
       <c r="A32" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="B32" s="8"/>
+      <c r="B32" s="7"/>
       <c r="C32" t="s" s="2">
         <v>14</v>
       </c>
@@ -3577,25 +3574,25 @@
       <c r="F32" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G32" s="8"/>
+      <c r="G32" s="7"/>
       <c r="H32" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J32" s="8"/>
+      <c r="J32" s="7"/>
       <c r="K32" t="s" s="2">
         <v>89</v>
       </c>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="8"/>
+      <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
     </row>
@@ -3609,7 +3606,7 @@
       <c r="C33" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="D33" s="7"/>
       <c r="E33" t="s" s="2">
         <v>4</v>
       </c>
@@ -3622,19 +3619,19 @@
       <c r="H33" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I33" s="8"/>
+      <c r="I33" s="7"/>
       <c r="J33" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="8"/>
+      <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
     </row>
@@ -3648,7 +3645,7 @@
       <c r="C34" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="7"/>
       <c r="E34" t="s" s="2">
         <v>4</v>
       </c>
@@ -3661,19 +3658,19 @@
       <c r="H34" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I34" s="8"/>
+      <c r="I34" s="7"/>
       <c r="J34" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="8"/>
+      <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
     </row>
@@ -3687,7 +3684,7 @@
       <c r="C35" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D35" s="8"/>
+      <c r="D35" s="7"/>
       <c r="E35" t="s" s="2">
         <v>4</v>
       </c>
@@ -3700,19 +3697,19 @@
       <c r="H35" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I35" s="8"/>
+      <c r="I35" s="7"/>
       <c r="J35" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="8"/>
+      <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
     </row>
@@ -3726,7 +3723,7 @@
       <c r="C36" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D36" s="8"/>
+      <c r="D36" s="7"/>
       <c r="E36" t="s" s="2">
         <v>4</v>
       </c>
@@ -3739,19 +3736,19 @@
       <c r="H36" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I36" s="8"/>
+      <c r="I36" s="7"/>
       <c r="J36" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="8"/>
+      <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
     </row>
@@ -3759,32 +3756,32 @@
       <c r="A37" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="B37" s="8"/>
+      <c r="B37" s="7"/>
       <c r="C37" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D37" s="8"/>
+      <c r="D37" s="7"/>
       <c r="E37" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G37" s="8"/>
+      <c r="G37" s="7"/>
       <c r="H37" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="8"/>
+      <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
     </row>
@@ -3798,7 +3795,7 @@
       <c r="C38" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D38" s="8"/>
+      <c r="D38" s="7"/>
       <c r="E38" t="s" s="2">
         <v>4</v>
       </c>
@@ -3811,19 +3808,19 @@
       <c r="H38" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I38" s="8"/>
+      <c r="I38" s="7"/>
       <c r="J38" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="8"/>
+      <c r="S38" s="7"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
     </row>
@@ -3837,7 +3834,7 @@
       <c r="C39" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D39" s="8"/>
+      <c r="D39" s="7"/>
       <c r="E39" t="s" s="2">
         <v>4</v>
       </c>
@@ -3850,19 +3847,19 @@
       <c r="H39" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I39" s="8"/>
+      <c r="I39" s="7"/>
       <c r="J39" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="8"/>
+      <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
     </row>
@@ -3876,7 +3873,7 @@
       <c r="C40" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="7"/>
       <c r="E40" t="s" s="2">
         <v>4</v>
       </c>
@@ -3889,17 +3886,17 @@
       <c r="H40" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
-      <c r="S40" s="8"/>
+      <c r="S40" s="7"/>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
     </row>
@@ -3913,7 +3910,7 @@
       <c r="C41" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="7"/>
       <c r="E41" t="s" s="2">
         <v>4</v>
       </c>
@@ -3926,17 +3923,17 @@
       <c r="H41" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
-      <c r="S41" s="8"/>
+      <c r="S41" s="7"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -3944,7 +3941,7 @@
       <c r="A42" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="B42" s="8"/>
+      <c r="B42" s="7"/>
       <c r="C42" t="s" s="2">
         <v>111</v>
       </c>
@@ -3957,23 +3954,23 @@
       <c r="F42" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="G42" s="8"/>
+      <c r="G42" s="7"/>
       <c r="H42" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="8"/>
+      <c r="S42" s="7"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
     </row>
@@ -3981,7 +3978,7 @@
       <c r="A43" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="B43" s="8"/>
+      <c r="B43" s="7"/>
       <c r="C43" t="s" s="2">
         <v>111</v>
       </c>
@@ -3994,23 +3991,23 @@
       <c r="F43" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="G43" s="8"/>
+      <c r="G43" s="7"/>
       <c r="H43" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="8"/>
+      <c r="S43" s="7"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
     </row>
@@ -4018,7 +4015,7 @@
       <c r="A44" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="B44" s="8"/>
+      <c r="B44" s="7"/>
       <c r="C44" t="s" s="2">
         <v>111</v>
       </c>
@@ -4031,25 +4028,25 @@
       <c r="F44" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="G44" s="8"/>
+      <c r="G44" s="7"/>
       <c r="H44" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J44" s="8"/>
+      <c r="J44" s="7"/>
       <c r="K44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="8"/>
+      <c r="S44" s="7"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
     </row>
@@ -4057,32 +4054,32 @@
       <c r="A45" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="B45" s="8"/>
+      <c r="B45" s="7"/>
       <c r="C45" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="D45" s="8"/>
+      <c r="D45" s="7"/>
       <c r="E45" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="G45" s="8"/>
+      <c r="G45" s="7"/>
       <c r="H45" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
-      <c r="S45" s="8"/>
+      <c r="S45" s="7"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
     </row>
@@ -4090,32 +4087,32 @@
       <c r="A46" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="B46" s="8"/>
+      <c r="B46" s="7"/>
       <c r="C46" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="D46" s="8"/>
+      <c r="D46" s="7"/>
       <c r="E46" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="G46" s="8"/>
+      <c r="G46" s="7"/>
       <c r="H46" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="8"/>
+      <c r="S46" s="7"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
     </row>
@@ -4129,7 +4126,7 @@
       <c r="C47" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="D47" s="8"/>
+      <c r="D47" s="7"/>
       <c r="E47" t="s" s="2">
         <v>4</v>
       </c>
@@ -4142,17 +4139,17 @@
       <c r="H47" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="8"/>
+      <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
     </row>
@@ -4166,7 +4163,7 @@
       <c r="C48" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="D48" s="8"/>
+      <c r="D48" s="7"/>
       <c r="E48" t="s" s="2">
         <v>4</v>
       </c>
@@ -4179,17 +4176,17 @@
       <c r="H48" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
-      <c r="S48" s="8"/>
+      <c r="S48" s="7"/>
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
     </row>
@@ -4197,7 +4194,7 @@
       <c r="A49" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="B49" s="8"/>
+      <c r="B49" s="7"/>
       <c r="C49" t="s" s="2">
         <v>111</v>
       </c>
@@ -4210,23 +4207,23 @@
       <c r="F49" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="G49" s="8"/>
+      <c r="G49" s="7"/>
       <c r="H49" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="8"/>
+      <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
     </row>
@@ -4234,7 +4231,7 @@
       <c r="A50" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="B50" s="8"/>
+      <c r="B50" s="7"/>
       <c r="C50" t="s" s="2">
         <v>142</v>
       </c>
@@ -4247,25 +4244,25 @@
       <c r="F50" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="G50" s="8"/>
+      <c r="G50" s="7"/>
       <c r="H50" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="J50" s="8"/>
+      <c r="J50" s="7"/>
       <c r="K50" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
-      <c r="S50" s="8"/>
+      <c r="S50" s="7"/>
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
     </row>
@@ -4273,7 +4270,7 @@
       <c r="A51" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="B51" s="8"/>
+      <c r="B51" s="7"/>
       <c r="C51" t="s" s="2">
         <v>145</v>
       </c>
@@ -4286,25 +4283,25 @@
       <c r="F51" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="G51" s="8"/>
+      <c r="G51" s="7"/>
       <c r="H51" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="J51" s="8"/>
+      <c r="J51" s="7"/>
       <c r="K51" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
-      <c r="S51" s="8"/>
+      <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
     </row>
@@ -4312,7 +4309,7 @@
       <c r="A52" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="B52" s="8"/>
+      <c r="B52" s="7"/>
       <c r="C52" t="s" s="2">
         <v>150</v>
       </c>
@@ -4325,25 +4322,25 @@
       <c r="F52" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="G52" s="8"/>
+      <c r="G52" s="7"/>
       <c r="H52" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="J52" s="8"/>
+      <c r="J52" s="7"/>
       <c r="K52" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="8"/>
+      <c r="S52" s="7"/>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
     </row>
@@ -4357,7 +4354,7 @@
       <c r="C53" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="D53" s="8"/>
+      <c r="D53" s="7"/>
       <c r="E53" t="s" s="2">
         <v>4</v>
       </c>
@@ -4370,17 +4367,17 @@
       <c r="H53" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
-      <c r="S53" s="8"/>
+      <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
     </row>
@@ -4394,7 +4391,7 @@
       <c r="C54" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="D54" s="8"/>
+      <c r="D54" s="7"/>
       <c r="E54" t="s" s="2">
         <v>4</v>
       </c>
@@ -4407,17 +4404,17 @@
       <c r="H54" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
-      <c r="S54" s="8"/>
+      <c r="S54" s="7"/>
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
     </row>
@@ -4431,7 +4428,7 @@
       <c r="C55" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="D55" s="8"/>
+      <c r="D55" s="7"/>
       <c r="E55" t="s" s="2">
         <v>4</v>
       </c>
@@ -4444,19 +4441,19 @@
       <c r="H55" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
       <c r="L55" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="8"/>
+      <c r="S55" s="7"/>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
     </row>
@@ -4470,7 +4467,7 @@
       <c r="C56" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="D56" s="8"/>
+      <c r="D56" s="7"/>
       <c r="E56" t="s" s="2">
         <v>4</v>
       </c>
@@ -4483,19 +4480,19 @@
       <c r="H56" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
       <c r="L56" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
-      <c r="S56" s="8"/>
+      <c r="S56" s="7"/>
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
     </row>
@@ -4509,7 +4506,7 @@
       <c r="C57" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="D57" s="8"/>
+      <c r="D57" s="7"/>
       <c r="E57" t="s" s="2">
         <v>4</v>
       </c>
@@ -4522,17 +4519,17 @@
       <c r="H57" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="8"/>
+      <c r="S57" s="7"/>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
     </row>
@@ -4546,7 +4543,7 @@
       <c r="C58" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="D58" s="8"/>
+      <c r="D58" s="7"/>
       <c r="E58" t="s" s="2">
         <v>4</v>
       </c>
@@ -4559,17 +4556,17 @@
       <c r="H58" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="8"/>
+      <c r="S58" s="7"/>
       <c r="T58" s="7"/>
       <c r="U58" s="7"/>
     </row>
@@ -4583,7 +4580,7 @@
       <c r="C59" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="D59" s="8"/>
+      <c r="D59" s="7"/>
       <c r="E59" t="s" s="2">
         <v>4</v>
       </c>
@@ -4596,17 +4593,17 @@
       <c r="H59" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="8"/>
+      <c r="S59" s="7"/>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
     </row>
@@ -4620,7 +4617,7 @@
       <c r="C60" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="D60" s="8"/>
+      <c r="D60" s="7"/>
       <c r="E60" t="s" s="2">
         <v>4</v>
       </c>
@@ -4633,19 +4630,19 @@
       <c r="H60" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
       <c r="L60" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="8"/>
+      <c r="S60" s="7"/>
       <c r="T60" s="7"/>
       <c r="U60" s="7"/>
     </row>
@@ -4653,7 +4650,7 @@
       <c r="A61" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="B61" s="8"/>
+      <c r="B61" s="7"/>
       <c r="C61" t="s" s="2">
         <v>154</v>
       </c>
@@ -4666,23 +4663,23 @@
       <c r="F61" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="G61" s="8"/>
+      <c r="G61" s="7"/>
       <c r="H61" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="8"/>
+      <c r="S61" s="7"/>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
     </row>
@@ -4690,32 +4687,32 @@
       <c r="A62" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="B62" s="8"/>
+      <c r="B62" s="7"/>
       <c r="C62" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="D62" s="8"/>
+      <c r="D62" s="7"/>
       <c r="E62" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="G62" s="8"/>
+      <c r="G62" s="7"/>
       <c r="H62" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="8"/>
+      <c r="S62" s="7"/>
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
     </row>
@@ -4723,7 +4720,7 @@
       <c r="A63" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="B63" s="8"/>
+      <c r="B63" s="7"/>
       <c r="C63" t="s" s="2">
         <v>154</v>
       </c>
@@ -4736,25 +4733,25 @@
       <c r="F63" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="G63" s="8"/>
+      <c r="G63" s="7"/>
       <c r="H63" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="J63" s="8"/>
+      <c r="J63" s="7"/>
       <c r="K63" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
-      <c r="S63" s="8"/>
+      <c r="S63" s="7"/>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
     </row>
@@ -4762,7 +4759,7 @@
       <c r="A64" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="B64" s="8"/>
+      <c r="B64" s="7"/>
       <c r="C64" t="s" s="2">
         <v>154</v>
       </c>
@@ -4775,25 +4772,25 @@
       <c r="F64" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="G64" s="8"/>
+      <c r="G64" s="7"/>
       <c r="H64" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="J64" s="8"/>
+      <c r="J64" s="7"/>
       <c r="K64" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
-      <c r="S64" s="8"/>
+      <c r="S64" s="7"/>
       <c r="T64" s="7"/>
       <c r="U64" s="7"/>
     </row>
@@ -4807,7 +4804,7 @@
       <c r="C65" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="D65" s="8"/>
+      <c r="D65" s="7"/>
       <c r="E65" t="s" s="2">
         <v>4</v>
       </c>
@@ -4820,17 +4817,17 @@
       <c r="H65" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="8"/>
+      <c r="S65" s="7"/>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
     </row>
@@ -4844,7 +4841,7 @@
       <c r="C66" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="D66" s="8"/>
+      <c r="D66" s="7"/>
       <c r="E66" t="s" s="2">
         <v>4</v>
       </c>
@@ -4857,17 +4854,17 @@
       <c r="H66" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="8"/>
+      <c r="S66" s="7"/>
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
     </row>
@@ -4875,7 +4872,7 @@
       <c r="A67" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="B67" s="8"/>
+      <c r="B67" s="7"/>
       <c r="C67" t="s" s="2">
         <v>154</v>
       </c>
@@ -4888,31 +4885,31 @@
       <c r="F67" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="G67" s="8"/>
+      <c r="G67" s="7"/>
       <c r="H67" t="s" s="2">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
+        <v>189</v>
+      </c>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
-      <c r="S67" s="8"/>
+      <c r="S67" s="7"/>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
     </row>
     <row r="68" ht="17" customHeight="1">
       <c r="A68" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B68" s="8"/>
+        <v>190</v>
+      </c>
+      <c r="B68" s="7"/>
       <c r="C68" t="s" s="2">
         <v>154</v>
       </c>
@@ -4923,35 +4920,35 @@
         <v>4</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="G68" s="8"/>
+        <v>191</v>
+      </c>
+      <c r="G68" s="7"/>
       <c r="H68" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="J68" s="8"/>
+      <c r="J68" s="7"/>
       <c r="K68" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="8"/>
+      <c r="S68" s="7"/>
       <c r="T68" s="7"/>
       <c r="U68" s="7"/>
     </row>
     <row r="69" ht="17" customHeight="1">
       <c r="A69" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B69" s="8"/>
+        <v>192</v>
+      </c>
+      <c r="B69" s="7"/>
       <c r="C69" t="s" s="2">
         <v>154</v>
       </c>
@@ -4962,41 +4959,41 @@
         <v>4</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="G69" s="8"/>
+        <v>191</v>
+      </c>
+      <c r="G69" s="7"/>
       <c r="H69" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="J69" s="8"/>
+      <c r="J69" s="7"/>
       <c r="K69" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
-      <c r="S69" s="8"/>
+      <c r="S69" s="7"/>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
     </row>
     <row r="70" ht="17" customHeight="1">
       <c r="A70" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="D70" s="8"/>
+      <c r="D70" s="7"/>
       <c r="E70" t="s" s="2">
         <v>4</v>
       </c>
@@ -5004,36 +5001,36 @@
         <v>9</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
-      <c r="S70" s="8"/>
+      <c r="S70" s="7"/>
       <c r="T70" s="7"/>
       <c r="U70" s="7"/>
     </row>
     <row r="71" ht="17" customHeight="1">
       <c r="A71" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="D71" s="8"/>
+      <c r="D71" s="7"/>
       <c r="E71" t="s" s="2">
         <v>4</v>
       </c>
@@ -5046,33 +5043,33 @@
       <c r="H71" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
       <c r="L71" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
+        <v>197</v>
+      </c>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
-      <c r="S71" s="8"/>
+      <c r="S71" s="7"/>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
     </row>
     <row r="72" ht="17" customHeight="1">
       <c r="A72" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C72" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="D72" s="8"/>
+      <c r="D72" s="7"/>
       <c r="E72" t="s" s="2">
         <v>4</v>
       </c>
@@ -5085,33 +5082,33 @@
       <c r="H72" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
       <c r="L72" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
+        <v>199</v>
+      </c>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
-      <c r="S72" s="8"/>
+      <c r="S72" s="7"/>
       <c r="T72" s="7"/>
       <c r="U72" s="7"/>
     </row>
     <row r="73" ht="17" customHeight="1">
       <c r="A73" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="D73" s="8"/>
+      <c r="D73" s="7"/>
       <c r="E73" t="s" s="2">
         <v>4</v>
       </c>
@@ -5124,33 +5121,33 @@
       <c r="H73" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
       <c r="L73" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
+        <v>201</v>
+      </c>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
-      <c r="S73" s="8"/>
+      <c r="S73" s="7"/>
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
     </row>
     <row r="74" ht="17" customHeight="1">
       <c r="A74" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="D74" s="8"/>
+      <c r="D74" s="7"/>
       <c r="E74" t="s" s="2">
         <v>4</v>
       </c>
@@ -5163,33 +5160,33 @@
       <c r="H74" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
       <c r="L74" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
+        <v>203</v>
+      </c>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
-      <c r="S74" s="8"/>
+      <c r="S74" s="7"/>
       <c r="T74" s="7"/>
       <c r="U74" s="7"/>
     </row>
     <row r="75" ht="17" customHeight="1">
       <c r="A75" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="D75" s="8"/>
+      <c r="D75" s="7"/>
       <c r="E75" t="s" s="2">
         <v>4</v>
       </c>
@@ -5202,33 +5199,33 @@
       <c r="H75" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
       <c r="L75" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
+        <v>204</v>
+      </c>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
-      <c r="S75" s="8"/>
+      <c r="S75" s="7"/>
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
     </row>
     <row r="76" ht="17" customHeight="1">
       <c r="A76" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="D76" s="8"/>
+      <c r="D76" s="7"/>
       <c r="E76" t="s" s="2">
         <v>4</v>
       </c>
@@ -5236,36 +5233,36 @@
         <v>9</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
-      <c r="S76" s="8"/>
+      <c r="S76" s="7"/>
       <c r="T76" s="7"/>
       <c r="U76" s="7"/>
     </row>
     <row r="77" ht="17" customHeight="1">
       <c r="A77" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="D77" s="8"/>
+      <c r="D77" s="7"/>
       <c r="E77" t="s" s="2">
         <v>4</v>
       </c>
@@ -5278,60 +5275,60 @@
       <c r="H77" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="8"/>
+      <c r="S77" s="7"/>
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
     </row>
     <row r="78" ht="17" customHeight="1">
       <c r="A78" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="D78" s="8"/>
+      <c r="D78" s="7"/>
       <c r="E78" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
-      <c r="S78" s="8"/>
+      <c r="S78" s="7"/>
       <c r="T78" s="7"/>
       <c r="U78" s="7"/>
     </row>
     <row r="79" ht="17" customHeight="1">
       <c r="A79" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>85</v>
@@ -5339,51 +5336,51 @@
       <c r="C79" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="D79" s="8"/>
+      <c r="D79" s="7"/>
       <c r="E79" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
-      <c r="S79" s="8"/>
+      <c r="S79" s="7"/>
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
     </row>
     <row r="80" ht="17" customHeight="1">
       <c r="A80" t="s" s="10">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" t="s" s="10">
         <v>154</v>
       </c>
       <c r="D80" t="s" s="10">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E80" t="s" s="10">
         <v>4</v>
       </c>
       <c r="F80" t="s" s="10">
-        <v>214</v>
-      </c>
-      <c r="G80" s="12"/>
+        <v>215</v>
+      </c>
+      <c r="G80" s="11"/>
       <c r="H80" t="s" s="10">
         <v>17</v>
       </c>
@@ -5402,86 +5399,86 @@
       <c r="U80" s="7"/>
     </row>
     <row r="81" ht="17" customHeight="1">
-      <c r="A81" t="s" s="13">
-        <v>215</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" t="s" s="15">
+      <c r="A81" t="s" s="12">
+        <v>216</v>
+      </c>
+      <c r="B81" s="13"/>
+      <c r="C81" t="s" s="14">
         <v>154</v>
       </c>
-      <c r="D81" s="14"/>
-      <c r="E81" t="s" s="15">
-        <v>4</v>
-      </c>
-      <c r="F81" t="s" s="15">
+      <c r="D81" s="13"/>
+      <c r="E81" t="s" s="14">
+        <v>4</v>
+      </c>
+      <c r="F81" t="s" s="14">
         <v>104</v>
       </c>
-      <c r="G81" t="s" s="15">
-        <v>216</v>
-      </c>
-      <c r="H81" t="s" s="15">
-        <v>17</v>
-      </c>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14"/>
-      <c r="N81" s="14"/>
-      <c r="O81" s="14"/>
-      <c r="P81" s="14"/>
-      <c r="Q81" s="14"/>
-      <c r="R81" s="16"/>
-      <c r="S81" s="14"/>
-      <c r="T81" s="17"/>
+      <c r="G81" t="s" s="14">
+        <v>217</v>
+      </c>
+      <c r="H81" t="s" s="14">
+        <v>17</v>
+      </c>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="15"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="16"/>
       <c r="U81" s="7"/>
     </row>
     <row r="82" ht="17" customHeight="1">
-      <c r="A82" t="s" s="18">
-        <v>217</v>
-      </c>
-      <c r="B82" s="19"/>
-      <c r="C82" t="s" s="18">
+      <c r="A82" t="s" s="17">
         <v>218</v>
       </c>
-      <c r="D82" t="s" s="18">
+      <c r="B82" s="18"/>
+      <c r="C82" t="s" s="17">
+        <v>219</v>
+      </c>
+      <c r="D82" t="s" s="17">
         <v>178</v>
       </c>
-      <c r="E82" t="s" s="18">
-        <v>4</v>
-      </c>
-      <c r="F82" t="s" s="18">
-        <v>219</v>
-      </c>
-      <c r="G82" s="19"/>
-      <c r="H82" t="s" s="18">
-        <v>17</v>
-      </c>
-      <c r="I82" t="s" s="18">
+      <c r="E82" t="s" s="17">
+        <v>4</v>
+      </c>
+      <c r="F82" t="s" s="17">
+        <v>220</v>
+      </c>
+      <c r="G82" s="18"/>
+      <c r="H82" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="I82" t="s" s="17">
         <v>179</v>
       </c>
-      <c r="J82" s="19"/>
-      <c r="K82" t="s" s="18">
+      <c r="J82" s="18"/>
+      <c r="K82" t="s" s="17">
         <v>143</v>
       </c>
-      <c r="L82" s="19"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="19"/>
-      <c r="P82" s="19"/>
-      <c r="Q82" s="19"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="18"/>
       <c r="R82" s="7"/>
-      <c r="S82" s="19"/>
+      <c r="S82" s="18"/>
       <c r="T82" s="7"/>
       <c r="U82" s="7"/>
     </row>
     <row r="83" ht="17" customHeight="1">
       <c r="A83" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B83" s="8"/>
+        <v>221</v>
+      </c>
+      <c r="B83" s="7"/>
       <c r="C83" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>178</v>
@@ -5492,35 +5489,35 @@
       <c r="F83" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="G83" s="8"/>
+      <c r="G83" s="7"/>
       <c r="H83" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="J83" s="8"/>
+      <c r="J83" s="7"/>
       <c r="K83" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
-      <c r="P83" s="8"/>
-      <c r="Q83" s="8"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
-      <c r="S83" s="8"/>
+      <c r="S83" s="7"/>
       <c r="T83" s="7"/>
       <c r="U83" s="7"/>
     </row>
     <row r="84" ht="17" customHeight="1">
       <c r="A84" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B84" s="8"/>
+        <v>222</v>
+      </c>
+      <c r="B84" s="7"/>
       <c r="C84" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>178</v>
@@ -5529,41 +5526,41 @@
         <v>4</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="G84" s="8"/>
+        <v>223</v>
+      </c>
+      <c r="G84" s="7"/>
       <c r="H84" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="J84" s="8"/>
+      <c r="J84" s="7"/>
       <c r="K84" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="8"/>
-      <c r="Q84" s="8"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="8"/>
+      <c r="S84" s="7"/>
       <c r="T84" s="7"/>
       <c r="U84" s="7"/>
     </row>
     <row r="85" ht="17" customHeight="1">
       <c r="A85" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="D85" s="8"/>
+        <v>226</v>
+      </c>
+      <c r="D85" s="7"/>
       <c r="E85" t="s" s="2">
         <v>4</v>
       </c>
@@ -5571,36 +5568,36 @@
         <v>15</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="8"/>
-      <c r="P85" s="8"/>
-      <c r="Q85" s="8"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="8"/>
+      <c r="S85" s="7"/>
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
     </row>
     <row r="86" ht="17" customHeight="1">
       <c r="A86" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="D86" s="8"/>
+        <v>226</v>
+      </c>
+      <c r="D86" s="7"/>
       <c r="E86" t="s" s="2">
         <v>4</v>
       </c>
@@ -5608,149 +5605,149 @@
         <v>15</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
-      <c r="O86" s="8"/>
-      <c r="P86" s="8"/>
-      <c r="Q86" s="8"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
-      <c r="S86" s="8"/>
+      <c r="S86" s="7"/>
       <c r="T86" s="7"/>
       <c r="U86" s="7"/>
     </row>
     <row r="87" ht="17" customHeight="1">
       <c r="A87" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="D87" s="8"/>
+        <v>226</v>
+      </c>
+      <c r="D87" s="7"/>
       <c r="E87" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
-      <c r="O87" s="8"/>
-      <c r="P87" s="8"/>
-      <c r="Q87" s="8"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
-      <c r="S87" s="8"/>
+      <c r="S87" s="7"/>
       <c r="T87" s="7"/>
       <c r="U87" s="7"/>
     </row>
     <row r="88" ht="17" customHeight="1">
       <c r="A88" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="D88" s="8"/>
+        <v>226</v>
+      </c>
+      <c r="D88" s="7"/>
       <c r="E88" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="8"/>
-      <c r="Q88" s="8"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
-      <c r="S88" s="8"/>
+      <c r="S88" s="7"/>
       <c r="T88" s="7"/>
       <c r="U88" s="7"/>
     </row>
     <row r="89" ht="17" customHeight="1">
       <c r="A89" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="D89" s="8"/>
+        <v>226</v>
+      </c>
+      <c r="D89" s="7"/>
       <c r="E89" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G89" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="H89" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="8"/>
-      <c r="Q89" s="8"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="8"/>
+      <c r="S89" s="7"/>
       <c r="T89" s="7"/>
       <c r="U89" s="7"/>
     </row>
     <row r="90" ht="17" customHeight="1">
       <c r="A90" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="D90" s="8"/>
+        <v>226</v>
+      </c>
+      <c r="D90" s="7"/>
       <c r="E90" t="s" s="2">
         <v>4</v>
       </c>
@@ -5758,36 +5755,36 @@
         <v>104</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="8"/>
-      <c r="Q90" s="8"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="8"/>
+      <c r="S90" s="7"/>
       <c r="T90" s="7"/>
       <c r="U90" s="7"/>
     </row>
     <row r="91" ht="17" customHeight="1">
       <c r="A91" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="D91" s="8"/>
+        <v>226</v>
+      </c>
+      <c r="D91" s="7"/>
       <c r="E91" t="s" s="2">
         <v>4</v>
       </c>
@@ -5795,36 +5792,36 @@
         <v>104</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="8"/>
-      <c r="P91" s="8"/>
-      <c r="Q91" s="8"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
-      <c r="S91" s="8"/>
+      <c r="S91" s="7"/>
       <c r="T91" s="7"/>
       <c r="U91" s="7"/>
     </row>
     <row r="92" ht="17" customHeight="1">
       <c r="A92" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="D92" s="8"/>
+        <v>226</v>
+      </c>
+      <c r="D92" s="7"/>
       <c r="E92" t="s" s="2">
         <v>4</v>
       </c>
@@ -5832,38 +5829,38 @@
         <v>104</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
       <c r="L92" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="8"/>
-      <c r="P92" s="8"/>
-      <c r="Q92" s="8"/>
+        <v>243</v>
+      </c>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
-      <c r="S92" s="8"/>
+      <c r="S92" s="7"/>
       <c r="T92" s="7"/>
       <c r="U92" s="7"/>
     </row>
     <row r="93" ht="17" customHeight="1">
       <c r="A93" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="D93" s="8"/>
+        <v>226</v>
+      </c>
+      <c r="D93" s="7"/>
       <c r="E93" t="s" s="2">
         <v>4</v>
       </c>
@@ -5871,38 +5868,38 @@
         <v>74</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
       <c r="L93" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
-      <c r="O93" s="8"/>
-      <c r="P93" s="8"/>
-      <c r="Q93" s="8"/>
+        <v>247</v>
+      </c>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="8"/>
+      <c r="S93" s="7"/>
       <c r="T93" s="7"/>
       <c r="U93" s="7"/>
     </row>
     <row r="94" ht="17" customHeight="1">
       <c r="A94" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="D94" s="8"/>
+        <v>226</v>
+      </c>
+      <c r="D94" s="7"/>
       <c r="E94" t="s" s="2">
         <v>4</v>
       </c>
@@ -5910,38 +5907,38 @@
         <v>74</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
       <c r="L94" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
-      <c r="O94" s="8"/>
-      <c r="P94" s="8"/>
-      <c r="Q94" s="8"/>
+        <v>249</v>
+      </c>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
-      <c r="S94" s="8"/>
+      <c r="S94" s="7"/>
       <c r="T94" s="7"/>
       <c r="U94" s="7"/>
     </row>
     <row r="95" ht="17" customHeight="1">
       <c r="A95" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="D95" s="8"/>
+        <v>226</v>
+      </c>
+      <c r="D95" s="7"/>
       <c r="E95" t="s" s="2">
         <v>4</v>
       </c>
@@ -5954,93 +5951,93 @@
       <c r="H95" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="8"/>
-      <c r="P95" s="8"/>
-      <c r="Q95" s="8"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="8"/>
+      <c r="S95" s="7"/>
       <c r="T95" s="7"/>
       <c r="U95" s="7"/>
     </row>
     <row r="96" ht="17" customHeight="1">
       <c r="A96" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="B96" s="8"/>
+        <v>251</v>
+      </c>
+      <c r="B96" s="7"/>
       <c r="C96" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="D96" s="8"/>
+        <v>226</v>
+      </c>
+      <c r="D96" s="7"/>
       <c r="E96" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="G96" s="8"/>
+        <v>252</v>
+      </c>
+      <c r="G96" s="7"/>
       <c r="H96" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
-      <c r="O96" s="8"/>
-      <c r="P96" s="8"/>
-      <c r="Q96" s="8"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
-      <c r="S96" s="8"/>
+      <c r="S96" s="7"/>
       <c r="T96" s="7"/>
       <c r="U96" s="7"/>
     </row>
     <row r="97" ht="17" customHeight="1">
       <c r="A97" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B97" s="8"/>
+        <v>253</v>
+      </c>
+      <c r="B97" s="7"/>
       <c r="C97" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="D97" s="8"/>
+        <v>226</v>
+      </c>
+      <c r="D97" s="7"/>
       <c r="E97" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="G97" s="8"/>
+        <v>254</v>
+      </c>
+      <c r="G97" s="7"/>
       <c r="H97" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
-      <c r="O97" s="8"/>
-      <c r="P97" s="8"/>
-      <c r="Q97" s="8"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="8"/>
+      <c r="S97" s="7"/>
       <c r="T97" s="7"/>
       <c r="U97" s="7"/>
     </row>
     <row r="98" ht="17" customHeight="1">
       <c r="A98" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="B98" s="8"/>
+        <v>255</v>
+      </c>
+      <c r="B98" s="7"/>
       <c r="C98" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>41</v>
@@ -6051,72 +6048,72 @@
       <c r="F98" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="G98" s="8"/>
+      <c r="G98" s="7"/>
       <c r="H98" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="J98" s="8"/>
+      <c r="J98" s="7"/>
       <c r="K98" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="8"/>
-      <c r="O98" s="8"/>
-      <c r="P98" s="8"/>
-      <c r="Q98" s="8"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="8"/>
+      <c r="S98" s="7"/>
       <c r="T98" s="7"/>
       <c r="U98" s="7"/>
     </row>
     <row r="99" ht="17" customHeight="1">
       <c r="A99" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="B99" s="8"/>
+        <v>255</v>
+      </c>
+      <c r="B99" s="7"/>
       <c r="C99" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="D99" s="8"/>
+        <v>256</v>
+      </c>
+      <c r="D99" s="7"/>
       <c r="E99" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="G99" s="8"/>
+      <c r="G99" s="7"/>
       <c r="H99" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="J99" s="8"/>
+      <c r="J99" s="7"/>
       <c r="K99" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
-      <c r="N99" s="8"/>
-      <c r="O99" s="8"/>
-      <c r="P99" s="8"/>
-      <c r="Q99" s="8"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="8"/>
+      <c r="S99" s="7"/>
       <c r="T99" s="7"/>
       <c r="U99" s="7"/>
     </row>
     <row r="100" ht="17" customHeight="1">
       <c r="A100" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c r="C100" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="B100" s="8"/>
-      <c r="C100" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>41</v>
@@ -6125,177 +6122,177 @@
         <v>4</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="G100" s="8"/>
+        <v>258</v>
+      </c>
+      <c r="G100" s="7"/>
       <c r="H100" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="J100" s="8"/>
+        <v>259</v>
+      </c>
+      <c r="J100" s="7"/>
       <c r="K100" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L100" s="8"/>
-      <c r="M100" s="8"/>
-      <c r="N100" s="8"/>
-      <c r="O100" s="8"/>
-      <c r="P100" s="8"/>
-      <c r="Q100" s="8"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="8"/>
+      <c r="S100" s="7"/>
       <c r="T100" s="7"/>
       <c r="U100" s="7"/>
     </row>
     <row r="101" ht="17" customHeight="1">
       <c r="A101" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="B101" s="8"/>
-      <c r="C101" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="D101" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="E101" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="G101" s="7"/>
+      <c r="H101" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I101" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="E101" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="G101" s="8"/>
-      <c r="H101" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="J101" s="8"/>
+      <c r="J101" s="7"/>
       <c r="K101" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L101" s="8"/>
-      <c r="M101" s="8"/>
-      <c r="N101" s="8"/>
-      <c r="O101" s="8"/>
-      <c r="P101" s="8"/>
-      <c r="Q101" s="8"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="8"/>
+      <c r="S101" s="7"/>
       <c r="T101" s="7"/>
       <c r="U101" s="7"/>
     </row>
     <row r="102" ht="17" customHeight="1">
       <c r="A102" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c r="C102" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="D102" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="B102" s="8"/>
-      <c r="C102" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="D102" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="E102" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="G102" s="8"/>
+        <v>262</v>
+      </c>
+      <c r="G102" s="7"/>
       <c r="H102" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="J102" s="8"/>
+        <v>263</v>
+      </c>
+      <c r="J102" s="7"/>
       <c r="K102" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L102" s="8"/>
-      <c r="M102" s="8"/>
-      <c r="N102" s="8"/>
-      <c r="O102" s="8"/>
-      <c r="P102" s="8"/>
-      <c r="Q102" s="8"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="8"/>
+      <c r="S102" s="7"/>
       <c r="T102" s="7"/>
       <c r="U102" s="7"/>
     </row>
     <row r="103" ht="17" customHeight="1">
       <c r="A103" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="B103" s="8"/>
+        <v>261</v>
+      </c>
+      <c r="B103" s="7"/>
       <c r="C103" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D103" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="E103" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="G103" s="7"/>
+      <c r="H103" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I103" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="E103" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="G103" s="8"/>
-      <c r="H103" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="J103" s="8"/>
+      <c r="J103" s="7"/>
       <c r="K103" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L103" s="8"/>
-      <c r="M103" s="8"/>
-      <c r="N103" s="8"/>
-      <c r="O103" s="8"/>
-      <c r="P103" s="8"/>
-      <c r="Q103" s="8"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
-      <c r="S103" s="8"/>
+      <c r="S103" s="7"/>
       <c r="T103" s="7"/>
       <c r="U103" s="7"/>
     </row>
     <row r="104" ht="17" customHeight="1">
       <c r="A104" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="B104" s="8"/>
+        <v>265</v>
+      </c>
+      <c r="B104" s="7"/>
       <c r="C104" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="D104" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="D104" s="7"/>
       <c r="E104" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G104" s="7"/>
       <c r="H104" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="8"/>
-      <c r="N104" s="8"/>
-      <c r="O104" s="8"/>
-      <c r="P104" s="8"/>
-      <c r="Q104" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
-      <c r="S104" s="8"/>
+      <c r="S104" s="7"/>
       <c r="T104" s="7"/>
       <c r="U104" s="7"/>
     </row>
@@ -6303,9 +6300,9 @@
       <c r="A105" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="B105" s="8"/>
+      <c r="B105" s="7"/>
       <c r="C105" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>178</v>
@@ -6316,23 +6313,23 @@
       <c r="F105" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="G105" s="8"/>
+      <c r="G105" s="7"/>
       <c r="H105" t="s" s="2">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="J105" s="8"/>
-      <c r="K105" s="8"/>
-      <c r="L105" s="8"/>
-      <c r="M105" s="8"/>
-      <c r="N105" s="8"/>
-      <c r="O105" s="8"/>
-      <c r="P105" s="8"/>
-      <c r="Q105" s="8"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
-      <c r="S105" s="8"/>
+      <c r="S105" s="7"/>
       <c r="T105" s="7"/>
       <c r="U105" s="7"/>
     </row>
@@ -6340,9 +6337,9 @@
       <c r="A106" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="B106" s="8"/>
+      <c r="B106" s="7"/>
       <c r="C106" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>271</v>
@@ -6353,23 +6350,23 @@
       <c r="F106" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="G106" s="8"/>
+      <c r="G106" s="7"/>
       <c r="H106" t="s" s="2">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="J106" s="8"/>
-      <c r="K106" s="8"/>
-      <c r="L106" s="8"/>
-      <c r="M106" s="8"/>
-      <c r="N106" s="8"/>
-      <c r="O106" s="8"/>
-      <c r="P106" s="8"/>
-      <c r="Q106" s="8"/>
+        <v>189</v>
+      </c>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7"/>
+      <c r="O106" s="7"/>
+      <c r="P106" s="7"/>
+      <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
-      <c r="S106" s="8"/>
+      <c r="S106" s="7"/>
       <c r="T106" s="7"/>
       <c r="U106" s="7"/>
     </row>
@@ -6381,9 +6378,9 @@
         <v>274</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="D107" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="D107" s="7"/>
       <c r="E107" t="s" s="2">
         <v>4</v>
       </c>
@@ -6396,19 +6393,19 @@
       <c r="H107" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="8"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
       <c r="L107" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M107" s="8"/>
-      <c r="N107" s="8"/>
-      <c r="O107" s="8"/>
-      <c r="P107" s="8"/>
-      <c r="Q107" s="8"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
-      <c r="S107" s="8"/>
+      <c r="S107" s="7"/>
       <c r="T107" s="7"/>
       <c r="U107" s="7"/>
     </row>
@@ -6420,9 +6417,9 @@
         <v>276</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="D108" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="D108" s="7"/>
       <c r="E108" t="s" s="2">
         <v>4</v>
       </c>
@@ -6435,19 +6432,19 @@
       <c r="H108" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I108" s="8"/>
-      <c r="J108" s="8"/>
-      <c r="K108" s="8"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
       <c r="L108" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M108" s="8"/>
-      <c r="N108" s="8"/>
-      <c r="O108" s="8"/>
-      <c r="P108" s="8"/>
-      <c r="Q108" s="8"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7"/>
+      <c r="P108" s="7"/>
+      <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
-      <c r="S108" s="8"/>
+      <c r="S108" s="7"/>
       <c r="T108" s="7"/>
       <c r="U108" s="7"/>
     </row>
@@ -6455,9 +6452,9 @@
       <c r="A109" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="7"/>
       <c r="C109" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>85</v>
@@ -6468,27 +6465,27 @@
       <c r="F109" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="G109" s="8"/>
+      <c r="G109" s="7"/>
       <c r="H109" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J109" s="8"/>
+      <c r="J109" s="7"/>
       <c r="K109" t="s" s="2">
         <v>143</v>
       </c>
       <c r="L109" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M109" s="8"/>
-      <c r="N109" s="8"/>
-      <c r="O109" s="8"/>
-      <c r="P109" s="8"/>
-      <c r="Q109" s="8"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="7"/>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
-      <c r="S109" s="8"/>
+      <c r="S109" s="7"/>
       <c r="T109" s="7"/>
       <c r="U109" s="7"/>
     </row>
@@ -6496,9 +6493,9 @@
       <c r="A110" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="B110" s="8"/>
+      <c r="B110" s="7"/>
       <c r="C110" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>85</v>
@@ -6509,27 +6506,27 @@
       <c r="F110" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="G110" s="8"/>
+      <c r="G110" s="7"/>
       <c r="H110" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J110" s="8"/>
+      <c r="J110" s="7"/>
       <c r="K110" t="s" s="2">
         <v>143</v>
       </c>
       <c r="L110" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M110" s="8"/>
-      <c r="N110" s="8"/>
-      <c r="O110" s="8"/>
-      <c r="P110" s="8"/>
-      <c r="Q110" s="8"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="7"/>
+      <c r="P110" s="7"/>
+      <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="8"/>
+      <c r="S110" s="7"/>
       <c r="T110" s="7"/>
       <c r="U110" s="7"/>
     </row>
@@ -6541,9 +6538,9 @@
         <v>283</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="D111" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="D111" s="7"/>
       <c r="E111" t="s" s="2">
         <v>4</v>
       </c>
@@ -6556,17 +6553,17 @@
       <c r="H111" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
-      <c r="N111" s="8"/>
-      <c r="O111" s="8"/>
-      <c r="P111" s="8"/>
-      <c r="Q111" s="8"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
+      <c r="O111" s="7"/>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="8"/>
+      <c r="S111" s="7"/>
       <c r="T111" s="7"/>
       <c r="U111" s="7"/>
     </row>
@@ -6578,9 +6575,9 @@
         <v>284</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="D112" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="D112" s="7"/>
       <c r="E112" t="s" s="2">
         <v>4</v>
       </c>
@@ -6593,17 +6590,17 @@
       <c r="H112" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="8"/>
-      <c r="L112" s="8"/>
-      <c r="M112" s="8"/>
-      <c r="N112" s="8"/>
-      <c r="O112" s="8"/>
-      <c r="P112" s="8"/>
-      <c r="Q112" s="8"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="7"/>
+      <c r="P112" s="7"/>
+      <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="8"/>
+      <c r="S112" s="7"/>
       <c r="T112" s="7"/>
       <c r="U112" s="7"/>
     </row>
@@ -6615,9 +6612,9 @@
         <v>285</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="D113" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="D113" s="7"/>
       <c r="E113" t="s" s="2">
         <v>4</v>
       </c>
@@ -6630,17 +6627,17 @@
       <c r="H113" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
-      <c r="K113" s="8"/>
-      <c r="L113" s="8"/>
-      <c r="M113" s="8"/>
-      <c r="N113" s="8"/>
-      <c r="O113" s="8"/>
-      <c r="P113" s="8"/>
-      <c r="Q113" s="8"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="7"/>
+      <c r="O113" s="7"/>
+      <c r="P113" s="7"/>
+      <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="8"/>
+      <c r="S113" s="7"/>
       <c r="T113" s="7"/>
       <c r="U113" s="7"/>
     </row>
@@ -6652,9 +6649,9 @@
         <v>286</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="D114" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="D114" s="7"/>
       <c r="E114" t="s" s="2">
         <v>4</v>
       </c>
@@ -6667,17 +6664,17 @@
       <c r="H114" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
-      <c r="K114" s="8"/>
-      <c r="L114" s="8"/>
-      <c r="M114" s="8"/>
-      <c r="N114" s="8"/>
-      <c r="O114" s="8"/>
-      <c r="P114" s="8"/>
-      <c r="Q114" s="8"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7"/>
+      <c r="O114" s="7"/>
+      <c r="P114" s="7"/>
+      <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="8"/>
+      <c r="S114" s="7"/>
       <c r="T114" s="7"/>
       <c r="U114" s="7"/>
     </row>
@@ -6685,9 +6682,9 @@
       <c r="A115" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="B115" s="8"/>
+      <c r="B115" s="7"/>
       <c r="C115" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>85</v>
@@ -6698,25 +6695,25 @@
       <c r="F115" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="G115" s="8"/>
+      <c r="G115" s="7"/>
       <c r="H115" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J115" s="8"/>
+      <c r="J115" s="7"/>
       <c r="K115" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L115" s="8"/>
-      <c r="M115" s="8"/>
-      <c r="N115" s="8"/>
-      <c r="O115" s="8"/>
-      <c r="P115" s="8"/>
-      <c r="Q115" s="8"/>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7"/>
+      <c r="O115" s="7"/>
+      <c r="P115" s="7"/>
+      <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="8"/>
+      <c r="S115" s="7"/>
       <c r="T115" s="7"/>
       <c r="U115" s="7"/>
     </row>
@@ -6724,9 +6721,9 @@
       <c r="A116" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="B116" s="8"/>
+      <c r="B116" s="7"/>
       <c r="C116" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>289</v>
@@ -6735,27 +6732,27 @@
         <v>4</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="G116" s="8"/>
+        <v>258</v>
+      </c>
+      <c r="G116" s="7"/>
       <c r="H116" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I116" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="J116" s="8"/>
+      <c r="J116" s="7"/>
       <c r="K116" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L116" s="8"/>
-      <c r="M116" s="8"/>
-      <c r="N116" s="8"/>
-      <c r="O116" s="8"/>
-      <c r="P116" s="8"/>
-      <c r="Q116" s="8"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="7"/>
+      <c r="P116" s="7"/>
+      <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="8"/>
+      <c r="S116" s="7"/>
       <c r="T116" s="7"/>
       <c r="U116" s="7"/>
     </row>
@@ -6767,9 +6764,9 @@
         <v>292</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="D117" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="D117" s="7"/>
       <c r="E117" t="s" s="2">
         <v>4</v>
       </c>
@@ -6782,17 +6779,17 @@
       <c r="H117" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
-      <c r="K117" s="8"/>
-      <c r="L117" s="8"/>
-      <c r="M117" s="8"/>
-      <c r="N117" s="8"/>
-      <c r="O117" s="8"/>
-      <c r="P117" s="8"/>
-      <c r="Q117" s="8"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="7"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="8"/>
+      <c r="S117" s="7"/>
       <c r="T117" s="7"/>
       <c r="U117" s="7"/>
     </row>
@@ -6804,9 +6801,9 @@
         <v>295</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="D118" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="D118" s="7"/>
       <c r="E118" t="s" s="2">
         <v>4</v>
       </c>
@@ -6819,17 +6816,17 @@
       <c r="H118" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
-      <c r="K118" s="8"/>
-      <c r="L118" s="8"/>
-      <c r="M118" s="8"/>
-      <c r="N118" s="8"/>
-      <c r="O118" s="8"/>
-      <c r="P118" s="8"/>
-      <c r="Q118" s="8"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
+      <c r="O118" s="7"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="8"/>
+      <c r="S118" s="7"/>
       <c r="T118" s="7"/>
       <c r="U118" s="7"/>
     </row>
@@ -6841,9 +6838,9 @@
         <v>297</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="D119" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="D119" s="7"/>
       <c r="E119" t="s" s="2">
         <v>4</v>
       </c>
@@ -6856,17 +6853,17 @@
       <c r="H119" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
-      <c r="K119" s="8"/>
-      <c r="L119" s="8"/>
-      <c r="M119" s="8"/>
-      <c r="N119" s="8"/>
-      <c r="O119" s="8"/>
-      <c r="P119" s="8"/>
-      <c r="Q119" s="8"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="7"/>
+      <c r="O119" s="7"/>
+      <c r="P119" s="7"/>
+      <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="8"/>
+      <c r="S119" s="7"/>
       <c r="T119" s="7"/>
       <c r="U119" s="7"/>
     </row>
@@ -6878,9 +6875,9 @@
         <v>299</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="D120" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="D120" s="7"/>
       <c r="E120" t="s" s="2">
         <v>4</v>
       </c>
@@ -6893,17 +6890,17 @@
       <c r="H120" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
-      <c r="K120" s="8"/>
-      <c r="L120" s="8"/>
-      <c r="M120" s="8"/>
-      <c r="N120" s="8"/>
-      <c r="O120" s="8"/>
-      <c r="P120" s="8"/>
-      <c r="Q120" s="8"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="7"/>
+      <c r="O120" s="7"/>
+      <c r="P120" s="7"/>
+      <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="8"/>
+      <c r="S120" s="7"/>
       <c r="T120" s="7"/>
       <c r="U120" s="7"/>
     </row>
@@ -6915,9 +6912,9 @@
         <v>301</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="D121" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="D121" s="7"/>
       <c r="E121" t="s" s="2">
         <v>4</v>
       </c>
@@ -6930,17 +6927,17 @@
       <c r="H121" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
-      <c r="M121" s="8"/>
-      <c r="N121" s="8"/>
-      <c r="O121" s="8"/>
-      <c r="P121" s="8"/>
-      <c r="Q121" s="8"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="7"/>
+      <c r="O121" s="7"/>
+      <c r="P121" s="7"/>
+      <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="8"/>
+      <c r="S121" s="7"/>
       <c r="T121" s="7"/>
       <c r="U121" s="7"/>
     </row>
@@ -6952,9 +6949,9 @@
         <v>303</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="D122" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="D122" s="7"/>
       <c r="E122" t="s" s="2">
         <v>4</v>
       </c>
@@ -6967,17 +6964,17 @@
       <c r="H122" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
-      <c r="K122" s="8"/>
-      <c r="L122" s="8"/>
-      <c r="M122" s="8"/>
-      <c r="N122" s="8"/>
-      <c r="O122" s="8"/>
-      <c r="P122" s="8"/>
-      <c r="Q122" s="8"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
+      <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="7"/>
+      <c r="O122" s="7"/>
+      <c r="P122" s="7"/>
+      <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
-      <c r="S122" s="8"/>
+      <c r="S122" s="7"/>
       <c r="T122" s="7"/>
       <c r="U122" s="7"/>
     </row>
@@ -6989,9 +6986,9 @@
         <v>2</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="D123" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="D123" s="7"/>
       <c r="E123" t="s" s="2">
         <v>4</v>
       </c>
@@ -7004,17 +7001,17 @@
       <c r="H123" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I123" s="8"/>
-      <c r="J123" s="8"/>
-      <c r="K123" s="8"/>
-      <c r="L123" s="8"/>
-      <c r="M123" s="8"/>
-      <c r="N123" s="8"/>
-      <c r="O123" s="8"/>
-      <c r="P123" s="8"/>
-      <c r="Q123" s="8"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
+      <c r="M123" s="7"/>
+      <c r="N123" s="7"/>
+      <c r="O123" s="7"/>
+      <c r="P123" s="7"/>
+      <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="8"/>
+      <c r="S123" s="7"/>
       <c r="T123" s="7"/>
       <c r="U123" s="7"/>
     </row>
@@ -7026,9 +7023,9 @@
         <v>3</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="D124" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="D124" s="7"/>
       <c r="E124" t="s" s="2">
         <v>4</v>
       </c>
@@ -7041,17 +7038,17 @@
       <c r="H124" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
-      <c r="N124" s="8"/>
-      <c r="O124" s="8"/>
-      <c r="P124" s="8"/>
-      <c r="Q124" s="8"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
+      <c r="M124" s="7"/>
+      <c r="N124" s="7"/>
+      <c r="O124" s="7"/>
+      <c r="P124" s="7"/>
+      <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="8"/>
+      <c r="S124" s="7"/>
       <c r="T124" s="7"/>
       <c r="U124" s="7"/>
     </row>
@@ -7063,9 +7060,9 @@
         <v>1</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="D125" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="D125" s="7"/>
       <c r="E125" t="s" s="2">
         <v>4</v>
       </c>
@@ -7078,17 +7075,17 @@
       <c r="H125" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I125" s="8"/>
-      <c r="J125" s="8"/>
-      <c r="K125" s="8"/>
-      <c r="L125" s="8"/>
-      <c r="M125" s="8"/>
-      <c r="N125" s="8"/>
-      <c r="O125" s="8"/>
-      <c r="P125" s="8"/>
-      <c r="Q125" s="8"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="7"/>
+      <c r="M125" s="7"/>
+      <c r="N125" s="7"/>
+      <c r="O125" s="7"/>
+      <c r="P125" s="7"/>
+      <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="8"/>
+      <c r="S125" s="7"/>
       <c r="T125" s="7"/>
       <c r="U125" s="7"/>
     </row>
@@ -7100,9 +7097,9 @@
         <v>0</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="D126" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="D126" s="7"/>
       <c r="E126" t="s" s="2">
         <v>4</v>
       </c>
@@ -7115,17 +7112,17 @@
       <c r="H126" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I126" s="8"/>
-      <c r="J126" s="8"/>
-      <c r="K126" s="8"/>
-      <c r="L126" s="8"/>
-      <c r="M126" s="8"/>
-      <c r="N126" s="8"/>
-      <c r="O126" s="8"/>
-      <c r="P126" s="8"/>
-      <c r="Q126" s="8"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="7"/>
+      <c r="M126" s="7"/>
+      <c r="N126" s="7"/>
+      <c r="O126" s="7"/>
+      <c r="P126" s="7"/>
+      <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="8"/>
+      <c r="S126" s="7"/>
       <c r="T126" s="7"/>
       <c r="U126" s="7"/>
     </row>
@@ -7133,9 +7130,9 @@
       <c r="A127" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="B127" s="8"/>
+      <c r="B127" s="7"/>
       <c r="C127" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D127" t="s" s="2">
         <v>312</v>
@@ -7146,25 +7143,25 @@
       <c r="F127" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="G127" s="8"/>
+      <c r="G127" s="7"/>
       <c r="H127" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I127" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="J127" s="8"/>
+      <c r="J127" s="7"/>
       <c r="K127" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L127" s="8"/>
-      <c r="M127" s="8"/>
-      <c r="N127" s="8"/>
-      <c r="O127" s="8"/>
-      <c r="P127" s="8"/>
-      <c r="Q127" s="8"/>
+      <c r="L127" s="7"/>
+      <c r="M127" s="7"/>
+      <c r="N127" s="7"/>
+      <c r="O127" s="7"/>
+      <c r="P127" s="7"/>
+      <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
-      <c r="S127" s="8"/>
+      <c r="S127" s="7"/>
       <c r="T127" s="7"/>
       <c r="U127" s="7"/>
     </row>
@@ -7172,9 +7169,9 @@
       <c r="A128" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="B128" s="8"/>
+      <c r="B128" s="7"/>
       <c r="C128" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>316</v>
@@ -7185,29 +7182,29 @@
       <c r="F128" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="G128" s="8"/>
+      <c r="G128" s="7"/>
       <c r="H128" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I128" s="8"/>
-      <c r="J128" s="8"/>
-      <c r="K128" s="8"/>
-      <c r="L128" s="8"/>
-      <c r="M128" s="8"/>
-      <c r="N128" s="8"/>
-      <c r="O128" s="8"/>
-      <c r="P128" s="8"/>
-      <c r="Q128" s="8"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="7"/>
+      <c r="K128" s="7"/>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
+      <c r="N128" s="7"/>
+      <c r="O128" s="7"/>
+      <c r="P128" s="7"/>
+      <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="8"/>
+      <c r="S128" s="7"/>
       <c r="T128" s="7"/>
       <c r="U128" s="7"/>
     </row>
     <row r="129" ht="17" customHeight="1">
       <c r="A129" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B129" s="8"/>
+        <v>221</v>
+      </c>
+      <c r="B129" s="7"/>
       <c r="C129" t="s" s="2">
         <v>317</v>
       </c>
@@ -7220,25 +7217,25 @@
       <c r="F129" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="G129" s="8"/>
+      <c r="G129" s="7"/>
       <c r="H129" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I129" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="J129" s="8"/>
+      <c r="J129" s="7"/>
       <c r="K129" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L129" s="8"/>
-      <c r="M129" s="8"/>
-      <c r="N129" s="8"/>
-      <c r="O129" s="8"/>
-      <c r="P129" s="8"/>
-      <c r="Q129" s="8"/>
+      <c r="L129" s="7"/>
+      <c r="M129" s="7"/>
+      <c r="N129" s="7"/>
+      <c r="O129" s="7"/>
+      <c r="P129" s="7"/>
+      <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="8"/>
+      <c r="S129" s="7"/>
       <c r="T129" s="7"/>
       <c r="U129" s="7"/>
     </row>
@@ -7246,7 +7243,7 @@
       <c r="A130" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="B130" s="8"/>
+      <c r="B130" s="7"/>
       <c r="C130" t="s" s="2">
         <v>317</v>
       </c>
@@ -7259,31 +7256,31 @@
       <c r="F130" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="G130" s="8"/>
+      <c r="G130" s="7"/>
       <c r="H130" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I130" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="J130" s="8"/>
+      <c r="J130" s="7"/>
       <c r="K130" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L130" s="8"/>
-      <c r="M130" s="8"/>
-      <c r="N130" s="8"/>
-      <c r="O130" s="8"/>
-      <c r="P130" s="8"/>
-      <c r="Q130" s="8"/>
+      <c r="L130" s="7"/>
+      <c r="M130" s="7"/>
+      <c r="N130" s="7"/>
+      <c r="O130" s="7"/>
+      <c r="P130" s="7"/>
+      <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="8"/>
+      <c r="S130" s="7"/>
       <c r="T130" s="7"/>
       <c r="U130" s="7"/>
     </row>
     <row r="131" ht="17" customHeight="1">
       <c r="A131" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>318</v>
@@ -7291,7 +7288,7 @@
       <c r="C131" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="D131" s="8"/>
+      <c r="D131" s="7"/>
       <c r="E131" t="s" s="2">
         <v>4</v>
       </c>
@@ -7304,23 +7301,23 @@
       <c r="H131" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I131" s="8"/>
-      <c r="J131" s="8"/>
-      <c r="K131" s="8"/>
-      <c r="L131" s="8"/>
-      <c r="M131" s="8"/>
-      <c r="N131" s="8"/>
-      <c r="O131" s="8"/>
-      <c r="P131" s="8"/>
-      <c r="Q131" s="8"/>
+      <c r="I131" s="7"/>
+      <c r="J131" s="7"/>
+      <c r="K131" s="7"/>
+      <c r="L131" s="7"/>
+      <c r="M131" s="7"/>
+      <c r="N131" s="7"/>
+      <c r="O131" s="7"/>
+      <c r="P131" s="7"/>
+      <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
-      <c r="S131" s="8"/>
+      <c r="S131" s="7"/>
       <c r="T131" s="7"/>
       <c r="U131" s="7"/>
     </row>
     <row r="132" ht="17" customHeight="1">
       <c r="A132" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>320</v>
@@ -7328,7 +7325,7 @@
       <c r="C132" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="D132" s="8"/>
+      <c r="D132" s="7"/>
       <c r="E132" t="s" s="2">
         <v>4</v>
       </c>
@@ -7341,23 +7338,23 @@
       <c r="H132" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I132" s="8"/>
-      <c r="J132" s="8"/>
-      <c r="K132" s="8"/>
-      <c r="L132" s="8"/>
-      <c r="M132" s="8"/>
-      <c r="N132" s="8"/>
-      <c r="O132" s="8"/>
-      <c r="P132" s="8"/>
-      <c r="Q132" s="8"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="7"/>
+      <c r="K132" s="7"/>
+      <c r="L132" s="7"/>
+      <c r="M132" s="7"/>
+      <c r="N132" s="7"/>
+      <c r="O132" s="7"/>
+      <c r="P132" s="7"/>
+      <c r="Q132" s="7"/>
       <c r="R132" s="7"/>
-      <c r="S132" s="8"/>
+      <c r="S132" s="7"/>
       <c r="T132" s="7"/>
       <c r="U132" s="7"/>
     </row>
     <row r="133" ht="17" customHeight="1">
       <c r="A133" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>322</v>
@@ -7365,7 +7362,7 @@
       <c r="C133" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="D133" s="8"/>
+      <c r="D133" s="7"/>
       <c r="E133" t="s" s="2">
         <v>4</v>
       </c>
@@ -7378,31 +7375,31 @@
       <c r="H133" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I133" s="8"/>
-      <c r="J133" s="8"/>
-      <c r="K133" s="8"/>
-      <c r="L133" s="8"/>
-      <c r="M133" s="8"/>
-      <c r="N133" s="8"/>
-      <c r="O133" s="8"/>
-      <c r="P133" s="8"/>
-      <c r="Q133" s="8"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="7"/>
+      <c r="L133" s="7"/>
+      <c r="M133" s="7"/>
+      <c r="N133" s="7"/>
+      <c r="O133" s="7"/>
+      <c r="P133" s="7"/>
+      <c r="Q133" s="7"/>
       <c r="R133" s="7"/>
-      <c r="S133" s="8"/>
+      <c r="S133" s="7"/>
       <c r="T133" s="7"/>
       <c r="U133" s="7"/>
     </row>
     <row r="134" ht="17" customHeight="1">
       <c r="A134" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C134" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="D134" s="8"/>
+      <c r="D134" s="7"/>
       <c r="E134" t="s" s="2">
         <v>4</v>
       </c>
@@ -7415,17 +7412,17 @@
       <c r="H134" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I134" s="8"/>
-      <c r="J134" s="8"/>
-      <c r="K134" s="8"/>
-      <c r="L134" s="8"/>
-      <c r="M134" s="8"/>
-      <c r="N134" s="8"/>
-      <c r="O134" s="8"/>
-      <c r="P134" s="8"/>
-      <c r="Q134" s="8"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="7"/>
+      <c r="K134" s="7"/>
+      <c r="L134" s="7"/>
+      <c r="M134" s="7"/>
+      <c r="N134" s="7"/>
+      <c r="O134" s="7"/>
+      <c r="P134" s="7"/>
+      <c r="Q134" s="7"/>
       <c r="R134" s="7"/>
-      <c r="S134" s="8"/>
+      <c r="S134" s="7"/>
       <c r="T134" s="7"/>
       <c r="U134" s="7"/>
     </row>
@@ -7439,7 +7436,7 @@
       <c r="C135" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="D135" s="8"/>
+      <c r="D135" s="7"/>
       <c r="E135" t="s" s="2">
         <v>4</v>
       </c>
@@ -7452,17 +7449,17 @@
       <c r="H135" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I135" s="8"/>
+      <c r="I135" s="7"/>
       <c r="J135" s="7"/>
-      <c r="K135" s="8"/>
-      <c r="L135" s="8"/>
-      <c r="M135" s="8"/>
-      <c r="N135" s="8"/>
-      <c r="O135" s="8"/>
-      <c r="P135" s="8"/>
-      <c r="Q135" s="8"/>
+      <c r="K135" s="7"/>
+      <c r="L135" s="7"/>
+      <c r="M135" s="7"/>
+      <c r="N135" s="7"/>
+      <c r="O135" s="7"/>
+      <c r="P135" s="7"/>
+      <c r="Q135" s="7"/>
       <c r="R135" s="7"/>
-      <c r="S135" s="8"/>
+      <c r="S135" s="7"/>
       <c r="T135" s="7"/>
       <c r="U135" s="7"/>
     </row>
@@ -7476,7 +7473,7 @@
       <c r="C136" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="D136" s="8"/>
+      <c r="D136" s="7"/>
       <c r="E136" t="s" s="2">
         <v>4</v>
       </c>
@@ -7489,19 +7486,19 @@
       <c r="H136" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I136" s="8"/>
+      <c r="I136" s="7"/>
       <c r="J136" s="7"/>
-      <c r="K136" s="8"/>
+      <c r="K136" s="7"/>
       <c r="L136" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M136" s="8"/>
-      <c r="N136" s="8"/>
-      <c r="O136" s="8"/>
-      <c r="P136" s="8"/>
-      <c r="Q136" s="8"/>
+      <c r="M136" s="7"/>
+      <c r="N136" s="7"/>
+      <c r="O136" s="7"/>
+      <c r="P136" s="7"/>
+      <c r="Q136" s="7"/>
       <c r="R136" s="7"/>
-      <c r="S136" s="8"/>
+      <c r="S136" s="7"/>
       <c r="T136" s="7"/>
       <c r="U136" s="7"/>
     </row>
@@ -7515,30 +7512,30 @@
       <c r="C137" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="D137" s="8"/>
+      <c r="D137" s="7"/>
       <c r="E137" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I137" s="8"/>
-      <c r="J137" s="8"/>
-      <c r="K137" s="8"/>
-      <c r="L137" s="8"/>
-      <c r="M137" s="8"/>
-      <c r="N137" s="8"/>
-      <c r="O137" s="8"/>
-      <c r="P137" s="8"/>
-      <c r="Q137" s="8"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="7"/>
+      <c r="K137" s="7"/>
+      <c r="L137" s="7"/>
+      <c r="M137" s="7"/>
+      <c r="N137" s="7"/>
+      <c r="O137" s="7"/>
+      <c r="P137" s="7"/>
+      <c r="Q137" s="7"/>
       <c r="R137" s="7"/>
-      <c r="S137" s="8"/>
+      <c r="S137" s="7"/>
       <c r="T137" s="7"/>
       <c r="U137" s="7"/>
     </row>
@@ -7552,30 +7549,30 @@
       <c r="C138" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="D138" s="8"/>
+      <c r="D138" s="7"/>
       <c r="E138" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="I138" s="8"/>
-      <c r="J138" s="8"/>
-      <c r="K138" s="8"/>
-      <c r="L138" s="8"/>
-      <c r="M138" s="8"/>
-      <c r="N138" s="8"/>
-      <c r="O138" s="8"/>
-      <c r="P138" s="8"/>
-      <c r="Q138" s="8"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="7"/>
+      <c r="K138" s="7"/>
+      <c r="L138" s="7"/>
+      <c r="M138" s="7"/>
+      <c r="N138" s="7"/>
+      <c r="O138" s="7"/>
+      <c r="P138" s="7"/>
+      <c r="Q138" s="7"/>
       <c r="R138" s="7"/>
-      <c r="S138" s="8"/>
+      <c r="S138" s="7"/>
       <c r="T138" s="7"/>
       <c r="U138" s="7"/>
     </row>
